--- a/planos/comprobar_manual/results_final/25_sensors.xlsx
+++ b/planos/comprobar_manual/results_final/25_sensors.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.53567204123765</v>
+        <v>26.46933819339602</v>
       </c>
       <c r="F2" t="n">
-        <v>2.816564759389629</v>
+        <v>2.809523913471157</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.53567204123765</v>
+        <v>26.46933819339602</v>
       </c>
       <c r="F3" t="n">
-        <v>2.816564759389629</v>
+        <v>2.809523913471157</v>
       </c>
       <c r="G3" t="n">
         <v>1.1</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.53567204123765</v>
+        <v>26.46933819339602</v>
       </c>
       <c r="F4" t="n">
-        <v>2.816564759389629</v>
+        <v>2.809523913471157</v>
       </c>
       <c r="G4" t="n">
         <v>1.7</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.53567204123765</v>
+        <v>26.46933819339602</v>
       </c>
       <c r="F5" t="n">
-        <v>2.816564759389629</v>
+        <v>2.809523913471157</v>
       </c>
       <c r="G5" t="n">
         <v>1.1</v>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.24779639954528</v>
+        <v>16.207180173491</v>
       </c>
       <c r="F6" t="n">
-        <v>2.781790961414783</v>
+        <v>2.774837043003561</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.24779639954528</v>
+        <v>16.207180173491</v>
       </c>
       <c r="F7" t="n">
-        <v>2.781790961414783</v>
+        <v>2.774837043003561</v>
       </c>
       <c r="G7" t="n">
         <v>1.7</v>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.32398557215268</v>
+        <v>18.27817929037069</v>
       </c>
       <c r="F8" t="n">
-        <v>4.163880777946277</v>
+        <v>4.153471912720414</v>
       </c>
       <c r="G8" t="n">
         <v>0.1</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.32398557215268</v>
+        <v>18.27817929037069</v>
       </c>
       <c r="F9" t="n">
-        <v>4.163880777946277</v>
+        <v>4.153471912720414</v>
       </c>
       <c r="G9" t="n">
         <v>0.6</v>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>18.32398557215268</v>
+        <v>18.27817929037069</v>
       </c>
       <c r="F10" t="n">
-        <v>4.163880777946277</v>
+        <v>4.153471912720414</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18.32398557215268</v>
+        <v>18.27817929037069</v>
       </c>
       <c r="F11" t="n">
-        <v>4.163880777946277</v>
+        <v>4.153471912720414</v>
       </c>
       <c r="G11" t="n">
         <v>1.1</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.51301825535973</v>
+        <v>20.46173983174909</v>
       </c>
       <c r="F12" t="n">
-        <v>1.630088945829074</v>
+        <v>1.626014051025849</v>
       </c>
       <c r="G12" t="n">
         <v>0.1</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.51301825535973</v>
+        <v>20.46173983174909</v>
       </c>
       <c r="F13" t="n">
-        <v>1.630088945829074</v>
+        <v>1.626014051025849</v>
       </c>
       <c r="G13" t="n">
         <v>0.6</v>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.51301825535973</v>
+        <v>20.46173983174909</v>
       </c>
       <c r="F14" t="n">
-        <v>1.630088945829074</v>
+        <v>1.626014051025849</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.51301825535973</v>
+        <v>20.46173983174909</v>
       </c>
       <c r="F15" t="n">
-        <v>1.630088945829074</v>
+        <v>1.626014051025849</v>
       </c>
       <c r="G15" t="n">
         <v>1.1</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.4185019137562</v>
+        <v>19.36995956105989</v>
       </c>
       <c r="F16" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G16" t="n">
         <v>0.1</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.4185019137562</v>
+        <v>19.36995956105989</v>
       </c>
       <c r="F17" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G17" t="n">
         <v>1.1</v>
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.4185019137562</v>
+        <v>19.36995956105989</v>
       </c>
       <c r="F18" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G18" t="n">
         <v>1.7</v>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>19.4185019137562</v>
+        <v>19.36995956105989</v>
       </c>
       <c r="F19" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G19" t="n">
         <v>1.1</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>19.4185019137562</v>
+        <v>19.36995956105989</v>
       </c>
       <c r="F20" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G20" t="n">
         <v>1.1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.4185019137562</v>
+        <v>19.36995956105989</v>
       </c>
       <c r="F21" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.70205093856678</v>
+        <v>22.64530037312749</v>
       </c>
       <c r="F22" t="n">
-        <v>4.163880777946277</v>
+        <v>4.153471912720414</v>
       </c>
       <c r="G22" t="n">
         <v>0.1</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.70205093856678</v>
+        <v>22.64530037312749</v>
       </c>
       <c r="F23" t="n">
-        <v>4.163880777946277</v>
+        <v>4.153471912720414</v>
       </c>
       <c r="G23" t="n">
         <v>0.6</v>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.70205093856678</v>
+        <v>22.64530037312749</v>
       </c>
       <c r="F24" t="n">
-        <v>4.163880777946277</v>
+        <v>4.153471912720414</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22.70205093856678</v>
+        <v>22.64530037312749</v>
       </c>
       <c r="F25" t="n">
-        <v>4.163880777946277</v>
+        <v>4.153471912720414</v>
       </c>
       <c r="G25" t="n">
         <v>1.1</v>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.89108362177383</v>
+        <v>24.82886091450589</v>
       </c>
       <c r="F26" t="n">
-        <v>1.630088945829074</v>
+        <v>1.626014051025849</v>
       </c>
       <c r="G26" t="n">
         <v>0.1</v>
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.89108362177383</v>
+        <v>24.82886091450589</v>
       </c>
       <c r="F27" t="n">
-        <v>1.630088945829074</v>
+        <v>1.626014051025849</v>
       </c>
       <c r="G27" t="n">
         <v>0.6</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24.89108362177383</v>
+        <v>24.82886091450589</v>
       </c>
       <c r="F28" t="n">
-        <v>1.630088945829074</v>
+        <v>1.626014051025849</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.89108362177383</v>
+        <v>24.82886091450589</v>
       </c>
       <c r="F29" t="n">
-        <v>1.630088945829074</v>
+        <v>1.626014051025849</v>
       </c>
       <c r="G29" t="n">
         <v>1.1</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.7965672801703</v>
+        <v>23.73708064381669</v>
       </c>
       <c r="F30" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G30" t="n">
         <v>0.1</v>
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>23.7965672801703</v>
+        <v>23.73708064381669</v>
       </c>
       <c r="F31" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G31" t="n">
         <v>1.1</v>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>23.7965672801703</v>
+        <v>23.73708064381669</v>
       </c>
       <c r="F32" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G32" t="n">
         <v>1.7</v>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>23.7965672801703</v>
+        <v>23.73708064381669</v>
       </c>
       <c r="F33" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G33" t="n">
         <v>1.1</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>23.7965672801703</v>
+        <v>23.73708064381669</v>
       </c>
       <c r="F34" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G34" t="n">
         <v>1.1</v>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>23.7965672801703</v>
+        <v>23.73708064381669</v>
       </c>
       <c r="F35" t="n">
-        <v>2.896984861887676</v>
+        <v>2.889742981873131</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.3933363698454247</v>
+        <v>0.3923531079605417</v>
       </c>
       <c r="F36" t="n">
-        <v>2.823681472328245</v>
+        <v>2.816622836057509</v>
       </c>
       <c r="G36" t="n">
         <v>0.1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.3933363698454247</v>
+        <v>0.3923531079605417</v>
       </c>
       <c r="F37" t="n">
-        <v>2.823681472328245</v>
+        <v>2.816622836057509</v>
       </c>
       <c r="G37" t="n">
         <v>1.1</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.3933363698454247</v>
+        <v>0.3923531079605417</v>
       </c>
       <c r="F38" t="n">
-        <v>2.823681472328245</v>
+        <v>2.816622836057509</v>
       </c>
       <c r="G38" t="n">
         <v>1.7</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.3933363698454247</v>
+        <v>0.3923531079605417</v>
       </c>
       <c r="F39" t="n">
-        <v>2.823681472328245</v>
+        <v>2.816622836057509</v>
       </c>
       <c r="G39" t="n">
         <v>1.1</v>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6.018698198151252</v>
+        <v>6.003652662094717</v>
       </c>
       <c r="F40" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G40" t="n">
         <v>0.1</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6.018698198151252</v>
+        <v>6.003652662094717</v>
       </c>
       <c r="F41" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G41" t="n">
         <v>0.6</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6.018698198151252</v>
+        <v>6.003652662094717</v>
       </c>
       <c r="F42" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1763,10 +1763,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.018698198151252</v>
+        <v>6.003652662094717</v>
       </c>
       <c r="F43" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G43" t="n">
         <v>1.1</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>7.700384523560892</v>
+        <v>7.681135109620515</v>
       </c>
       <c r="F44" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G44" t="n">
         <v>0.1</v>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>7.700384523560892</v>
+        <v>7.681135109620515</v>
       </c>
       <c r="F45" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G45" t="n">
         <v>0.6</v>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7.700384523560892</v>
+        <v>7.681135109620515</v>
       </c>
       <c r="F46" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.700384523560892</v>
+        <v>7.681135109620515</v>
       </c>
       <c r="F47" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G47" t="n">
         <v>1.1</v>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.859541360856072</v>
+        <v>6.842393885857616</v>
       </c>
       <c r="F48" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G48" t="n">
         <v>0.1</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6.859541360856072</v>
+        <v>6.842393885857616</v>
       </c>
       <c r="F49" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G49" t="n">
         <v>1.1</v>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.859541360856072</v>
+        <v>6.842393885857616</v>
       </c>
       <c r="F50" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G50" t="n">
         <v>1.7</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6.859541360856072</v>
+        <v>6.842393885857616</v>
       </c>
       <c r="F51" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G51" t="n">
         <v>1.1</v>
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6.859541360856072</v>
+        <v>6.842393885857616</v>
       </c>
       <c r="F52" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G52" t="n">
         <v>1.1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.859541360856072</v>
+        <v>6.842393885857616</v>
       </c>
       <c r="F53" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9.382070848970532</v>
+        <v>9.358617557146312</v>
       </c>
       <c r="F54" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G54" t="n">
         <v>0.1</v>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>9.382070848970532</v>
+        <v>9.358617557146312</v>
       </c>
       <c r="F55" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G55" t="n">
         <v>0.6</v>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>9.382070848970532</v>
+        <v>9.358617557146312</v>
       </c>
       <c r="F56" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>9.382070848970532</v>
+        <v>9.358617557146312</v>
       </c>
       <c r="F57" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G57" t="n">
         <v>1.1</v>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>11.06375717438017</v>
+        <v>11.03610000467211</v>
       </c>
       <c r="F58" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G58" t="n">
         <v>0.1</v>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>11.06375717438017</v>
+        <v>11.03610000467211</v>
       </c>
       <c r="F59" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G59" t="n">
         <v>0.6</v>
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11.06375717438017</v>
+        <v>11.03610000467211</v>
       </c>
       <c r="F60" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>11.06375717438017</v>
+        <v>11.03610000467211</v>
       </c>
       <c r="F61" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G61" t="n">
         <v>1.1</v>
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.22291401167535</v>
+        <v>10.19735878090921</v>
       </c>
       <c r="F62" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G62" t="n">
         <v>0.1</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10.22291401167535</v>
+        <v>10.19735878090921</v>
       </c>
       <c r="F63" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G63" t="n">
         <v>1.1</v>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>10.22291401167535</v>
+        <v>10.19735878090921</v>
       </c>
       <c r="F64" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G64" t="n">
         <v>1.7</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.22291401167535</v>
+        <v>10.19735878090921</v>
       </c>
       <c r="F65" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G65" t="n">
         <v>1.1</v>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.22291401167535</v>
+        <v>10.19735878090921</v>
       </c>
       <c r="F66" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G66" t="n">
         <v>1.1</v>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>10.22291401167535</v>
+        <v>10.19735878090921</v>
       </c>
       <c r="F67" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.74544349978981</v>
+        <v>12.7135824521979</v>
       </c>
       <c r="F68" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G68" t="n">
         <v>0.1</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>12.74544349978981</v>
+        <v>12.7135824521979</v>
       </c>
       <c r="F69" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G69" t="n">
         <v>0.6</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>12.74544349978981</v>
+        <v>12.7135824521979</v>
       </c>
       <c r="F70" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>12.74544349978981</v>
+        <v>12.7135824521979</v>
       </c>
       <c r="F71" t="n">
-        <v>4.065363809938984</v>
+        <v>4.055201217336458</v>
       </c>
       <c r="G71" t="n">
         <v>1.1</v>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14.42712982519945</v>
+        <v>14.3910648997237</v>
       </c>
       <c r="F72" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G72" t="n">
         <v>0.1</v>
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>14.42712982519945</v>
+        <v>14.3910648997237</v>
       </c>
       <c r="F73" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G73" t="n">
         <v>0.6</v>
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.42712982519945</v>
+        <v>14.3910648997237</v>
       </c>
       <c r="F74" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>14.42712982519945</v>
+        <v>14.3910648997237</v>
       </c>
       <c r="F75" t="n">
-        <v>1.720043825422925</v>
+        <v>1.71574406149687</v>
       </c>
       <c r="G75" t="n">
         <v>1.1</v>
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>13.58628666249463</v>
+        <v>13.55232367596081</v>
       </c>
       <c r="F76" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G76" t="n">
         <v>0.1</v>
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13.58628666249463</v>
+        <v>13.55232367596081</v>
       </c>
       <c r="F77" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G77" t="n">
         <v>1.1</v>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>13.58628666249463</v>
+        <v>13.55232367596081</v>
       </c>
       <c r="F78" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G78" t="n">
         <v>1.7</v>
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>13.58628666249463</v>
+        <v>13.55232367596081</v>
       </c>
       <c r="F79" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G79" t="n">
         <v>1.1</v>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>13.58628666249463</v>
+        <v>13.55232367596081</v>
       </c>
       <c r="F80" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G80" t="n">
         <v>1.1</v>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>13.58628666249463</v>
+        <v>13.55232367596081</v>
       </c>
       <c r="F81" t="n">
-        <v>2.892703817680955</v>
+        <v>2.885472639416664</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2.037840971350685</v>
+        <v>2.032746778420167</v>
       </c>
       <c r="F82" t="n">
-        <v>1.533276104113192</v>
+        <v>1.529443221960014</v>
       </c>
       <c r="G82" t="n">
         <v>1.1</v>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.037840971350685</v>
+        <v>2.032746778420167</v>
       </c>
       <c r="F83" t="n">
-        <v>1.533276104113192</v>
+        <v>1.529443221960014</v>
       </c>
       <c r="G83" t="n">
         <v>1.1</v>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>15.28539679133184</v>
+        <v>15.24718637090686</v>
       </c>
       <c r="F84" t="n">
-        <v>2.614143227136127</v>
+        <v>2.607608394372307</v>
       </c>
       <c r="G84" t="n">
         <v>0.1</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>15.28539679133184</v>
+        <v>15.24718637090686</v>
       </c>
       <c r="F85" t="n">
-        <v>2.614143227136127</v>
+        <v>2.607608394372307</v>
       </c>
       <c r="G85" t="n">
         <v>1.7</v>
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.67335149744878</v>
+        <v>26.60667347863288</v>
       </c>
       <c r="F86" t="n">
-        <v>2.796093353069933</v>
+        <v>2.789103681553595</v>
       </c>
       <c r="G86" t="n">
         <v>0.1</v>
@@ -3127,10 +3127,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.67335149744878</v>
+        <v>26.60667347863288</v>
       </c>
       <c r="F87" t="n">
-        <v>2.796093353069933</v>
+        <v>2.789103681553595</v>
       </c>
       <c r="G87" t="n">
         <v>1.1</v>
@@ -3158,10 +3158,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.67335149744878</v>
+        <v>26.60667347863288</v>
       </c>
       <c r="F88" t="n">
-        <v>2.796093353069933</v>
+        <v>2.789103681553595</v>
       </c>
       <c r="G88" t="n">
         <v>1.7</v>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.67335149744878</v>
+        <v>26.60667347863288</v>
       </c>
       <c r="F89" t="n">
-        <v>2.796093353069933</v>
+        <v>2.789103681553595</v>
       </c>
       <c r="G89" t="n">
         <v>1.1</v>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>11.61348235696053</v>
+        <v>11.58445098476159</v>
       </c>
       <c r="F90" t="n">
-        <v>2.626837063053534</v>
+        <v>2.620270498250707</v>
       </c>
       <c r="G90" t="n">
         <v>0.1</v>
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>11.61348235696053</v>
+        <v>11.58445098476159</v>
       </c>
       <c r="F91" t="n">
-        <v>2.626837063053534</v>
+        <v>2.620270498250707</v>
       </c>
       <c r="G91" t="n">
         <v>1.7</v>
